--- a/data/Map114.xlsx
+++ b/data/Map114.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>自動実行</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>シィナ</t>
+  </si>
+  <si>
+    <t>Sina</t>
   </si>
   <si>
     <t>シィナが気持ちよさそうに眠っている・・・</t>
@@ -684,7 +687,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,492 +695,501 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map114.xlsx
+++ b/data/Map114.xlsx
@@ -29,7 +29,7 @@
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>シィナが気持ちよさそうに眠っている・・・</t>

--- a/data/Map114.xlsx
+++ b/data/Map114.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>自動実行</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>・・・</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;すぴー・・・ｚｚZ</t>
@@ -687,7 +690,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,501 +698,513 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map114.xlsx
+++ b/data/Map114.xlsx
@@ -690,7 +690,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,281 +698,407 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -980,27 +1106,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1008,193 +1146,295 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
-      <c r="D88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1202,8 +1442,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
         <v>95</v>
       </c>
     </row>

--- a/data/Map114.xlsx
+++ b/data/Map114.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134AFA55-4470-4ECE-9F40-9D6C49365813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
   <si>
     <t>自動実行</t>
   </si>
@@ -352,22 +358,306 @@
   <si>
     <t>シィナの落書き帳
 猫の生き方</t>
+  </si>
+  <si>
+    <t>Shina is sleeping peacefully...</t>
+  </si>
+  <si>
+    <t>What should you do...</t>
+  </si>
+  <si>
+    <t>Have a closer look</t>
+  </si>
+  <si>
+    <t>Back away</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Zzzzz... Snore...</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Masturbate</t>
+  </si>
+  <si>
+    <t>Lick</t>
+  </si>
+  <si>
+    <t>Anal</t>
+  </si>
+  <si>
+    <t>No more</t>
+  </si>
+  <si>
+    <t>A-aaahh...
+I-I came...</t>
+  </si>
+  <si>
+    <t>I feel like such an idiot...
+I'd better leave before she wakes up...</t>
+  </si>
+  <si>
+    <t>Ahhh...
+I-I couldn't endure...</t>
+  </si>
+  <si>
+    <t>Ahhh...♥
+This smell... It's driving me crazy...</t>
+  </si>
+  <si>
+    <t>Th-this isn't good...
+I'd better leave before she wakes up...</t>
+  </si>
+  <si>
+    <t>Wh-what the...!!
+I'm... I'm being sucked in...!!</t>
+  </si>
+  <si>
+    <t>What's going on...!!
+I'm... I'm being sucked in...!!</t>
+  </si>
+  <si>
+    <t>Ahhh!!
+If I don't pull out soon...!!</t>
+  </si>
+  <si>
+    <t>Ah! Ahh!!
+Can't hold it back...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nyaaah...?
+Yaaaaawn...
+What the... What are you doing, nya...?</t>
+  </si>
+  <si>
+    <t>\n[1] was sucked in by Shina's ass...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nyaaaaahhh!?
+My ass feels all slimy and gross!!
+B-bathroom! I need a bathroom!!</t>
+  </si>
+  <si>
+    <t>\C[10]Search again</t>
+  </si>
+  <si>
+    <t>That's enough</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nyaaah...
+Snore... Snork... Zzzzzz</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Yaaawwn... Mmm.
+What're you doing in my room, nya?
+Is this a panty raid?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I see you, nya.
+What're you doing in my room, nya?
+Is this a panty raid?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Perfect timing on your part.
+I was just starting to get horny.
+Hey, lookie here, nyaan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Hey, little semen slave.
+Come over here and do your thing, nya♥
+Nyahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Shake, shake♥
+My pussy is calling for you, nyaa♥
+Don't you just want to sink it deep inside me, nyaan? Hee hee♥</t>
+  </si>
+  <si>
+    <t>Ugh... That sight is intoxicating.
+I need to get out quick, without looking...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;What's that? Averting your eyes, nyaa?
+What are you, a virgin?
+Nyahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Hurry up and get over here, nyaaan♥
+...Wait, what?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Th-they're not here!!
+They ran away, nyan...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;NYAAAAAAAAAHHH!!
+I'm shaking my bare ass like a fucking idiot, nyaa!!
+Dammit! I'll kill them!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;So you came, \n[1].
+I've been waiting.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You had some nerve back there, nya.
+I'll admit it felt kind of good...
+Considering you're a masochistic pig, nyaan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;That won't be happening again, nyaan.
+I'm gonna wring you dry, and then sip your semen out of 
+that condom.</t>
+  </si>
+  <si>
+    <t>Shina was defeated!</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Shina's Semen Slave</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>There's some kind of chest up above.
+It's too high up to reach...</t>
+  </si>
+  <si>
+    <t>Difficult looking books covered in dust line the shelf...</t>
+  </si>
+  <si>
+    <t>Grilled fish...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(At least eat at your desk...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(So this is Shina's room...)</t>
+  </si>
+  <si>
+    <t>Lots of fish crowd the table...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(This is a very particular diet...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(It's a grilled aquarium...)</t>
+  </si>
+  <si>
+    <t>Sake and fish...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Sounds about right...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I'm actually kinda jealous...)</t>
+  </si>
+  <si>
+    <t>A broken jar...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Seems kind of dangerous...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Judging by the crack in the wall, someone got mad and threw it.)</t>
+  </si>
+  <si>
+    <t>A broken barrel...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(It's falling apart...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(She's sharpening her claws on it...)</t>
+  </si>
+  <si>
+    <t>Report: On monsters (Mantis)</t>
+  </si>
+  <si>
+    <t>A giant praying mantis.
+It captures prey with its sickle arms, and slowly eats it.</t>
+  </si>
+  <si>
+    <t>In case of an attack, practice your image training.
+Birds are its natural enemy. Try to mimic a bird's movements.</t>
+  </si>
+  <si>
+    <t>Females devour the male after mating with him.
+During this time, the male is said to feel immeasurable pleasure.
+How truly masochistic.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Cats love this stuff.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I guess cats find this stuff tasty.)</t>
+  </si>
+  <si>
+    <t>Sharp looking clothing is hanging in the closet...</t>
+  </si>
+  <si>
+    <t>Stylish clothing is hanging in the closet...</t>
+  </si>
+  <si>
+    <t>Doesn't look like anything has been read.</t>
+  </si>
+  <si>
+    <t>Nothing else useful...</t>
+  </si>
+  <si>
+    <t>A book of recovery magic...
+There are claw marks on it...</t>
+  </si>
+  <si>
+    <t>\n[1] learned \C[3]『Healing』\C[0]!</t>
+  </si>
+  <si>
+    <t>I accidentally broke one of the spears displayed
+in the master's room...
+I glued it back on, but...</t>
+  </si>
+  <si>
+    <t>If he finds out...</t>
+  </si>
+  <si>
+    <t>Shina's Scratchpad
+A Cat's Life</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Ahh... Ahhh...♥
+N... Not... Again... Nyaaaah...♥</t>
+  </si>
+  <si>
+    <t>It's an extremely dangerous monster, but it's abdomen is weak.
+Attack its stomach to immediately take it down.
+It has wings, but cannot fly.</t>
+  </si>
+  <si>
+    <t>There are crunchy treats inside the jar...</t>
+  </si>
+  <si>
+    <t>Cigarettes and an oil lighter...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,28 +665,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -686,19 +992,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="3" width="77.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -714,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -722,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -730,199 +1037,269 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -930,7 +1307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -938,79 +1315,106 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="C37" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1018,31 +1422,40 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1050,31 +1463,40 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1082,23 +1504,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1106,31 +1534,40 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1138,7 +1575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1146,15 +1583,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1162,239 +1602,326 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1402,39 +1929,51 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1442,26 +1981,20 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="C94" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>